--- a/Lista_Precios.xlsx
+++ b/Lista_Precios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gforteza\Desktop\Germán Forteza - Marketing\Wurth\Acciones y Canales\Apps\Plan Recambio APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AB8CA3-F72F-4665-9FF1-0E8EC355DF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A6E2C9-3A86-4561-9B3C-BAFEA8D23399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4815" windowWidth="29040" windowHeight="15720" xr2:uid="{4AAD41D2-42A3-4124-AB7C-2BC8428DFD17}"/>
   </bookViews>
@@ -144,19 +144,19 @@
     <t>Taladro Atornillador ABSR 20 Compact</t>
   </si>
   <si>
+    <t>Amoladora Angular AWSR 20 Compact</t>
+  </si>
+  <si>
     <t>Taladro Percutor y Atornillador ABSR 20 PWR Combi</t>
   </si>
   <si>
-    <t>Llave de Impacto sin carbones</t>
-  </si>
-  <si>
-    <t>Llave de Impacto 3/4</t>
-  </si>
-  <si>
     <t>Atornillador de Impacto Master ASSR 20 14 inch Compact</t>
   </si>
   <si>
-    <t>Amoladora Angular AWS R 20 -115 Compact</t>
+    <t>LLave de Impacto ASSR 20 - 3/4 20V</t>
+  </si>
+  <si>
+    <t>LLave de Impacto ASSR 20 - 1/2 Compact 20V</t>
   </si>
 </sst>
 </file>
@@ -166,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,18 +215,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Wuerth Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Wuerth Book"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -317,7 +305,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -338,28 +326,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -700,13 +676,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9384125A-0E6C-4EE3-AA85-21B98531D0D9}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
@@ -730,13 +708,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="3">
@@ -747,13 +725,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="153.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4">
@@ -764,13 +742,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="4">
@@ -781,13 +759,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="57" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="4">
@@ -802,7 +780,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
@@ -819,7 +797,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>18</v>
@@ -845,11 +823,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="66" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>19</v>
@@ -862,11 +840,11 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="66" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>19</v>
@@ -879,13 +857,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="4">
@@ -896,7 +874,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
